--- a/database/Book1.xlsx
+++ b/database/Book1.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\siak\database\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="27795" windowHeight="13350"/>
+    <workbookView xWindow="930" yWindow="30" windowWidth="27795" windowHeight="13350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -21,7 +26,7 @@
     <author>Irwanto</author>
   </authors>
   <commentList>
-    <comment ref="A197" authorId="0">
+    <comment ref="A197" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A255" authorId="0">
+    <comment ref="A255" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A258" authorId="0">
+    <comment ref="A258" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A267" authorId="0">
+    <comment ref="A267" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A269" authorId="0">
+    <comment ref="A269" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A271" authorId="0">
+    <comment ref="A271" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -165,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A295" authorId="0">
+    <comment ref="A295" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -189,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A298" authorId="0">
+    <comment ref="A298" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -218,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="731">
   <si>
     <t>ACC3218</t>
   </si>
@@ -2416,7 +2421,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
@@ -2654,6 +2659,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2701,7 +2709,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2734,9 +2742,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2769,6 +2794,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2948,7 +2990,7 @@
   <dimension ref="A1:L299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2960,7 +3002,7 @@
     <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>729</v>
       </c>
@@ -2995,7 +3037,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3024,11 +3066,15 @@
       <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>IF(K2="YA",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -3057,11 +3103,15 @@
       <c r="J3" s="1">
         <v>513</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L66" si="0">IF(K3="YA",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -3090,11 +3140,15 @@
       <c r="J4" s="6">
         <v>513</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -3123,11 +3177,15 @@
       <c r="J5" s="5">
         <v>605</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -3156,11 +3214,15 @@
       <c r="J6" s="1">
         <v>522</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -3189,11 +3251,15 @@
       <c r="J7" s="1">
         <v>503</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -3222,11 +3288,15 @@
       <c r="J8" s="1">
         <v>503</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -3255,11 +3325,15 @@
       <c r="J9" s="1">
         <v>503</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -3288,11 +3362,15 @@
       <c r="J10" s="1">
         <v>515</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
@@ -3321,11 +3399,15 @@
       <c r="J11" s="1">
         <v>504</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -3354,11 +3436,15 @@
       <c r="J12" s="5">
         <v>521</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
@@ -3387,11 +3473,15 @@
       <c r="J13" s="1">
         <v>513</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
@@ -3422,11 +3512,15 @@
       <c r="J14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -3455,11 +3549,15 @@
       <c r="J15" s="5">
         <v>521</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
@@ -3488,11 +3586,15 @@
       <c r="J16" s="1">
         <v>523</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>62</v>
       </c>
@@ -3521,11 +3623,15 @@
       <c r="J17" s="1">
         <v>523</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
@@ -3554,11 +3660,15 @@
       <c r="J18" s="1">
         <v>507</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>70</v>
       </c>
@@ -3587,11 +3697,15 @@
       <c r="J19" s="1">
         <v>504</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>74</v>
       </c>
@@ -3620,11 +3734,15 @@
       <c r="J20" s="5">
         <v>511</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -3653,11 +3771,15 @@
       <c r="J21" s="1">
         <v>607</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>79</v>
       </c>
@@ -3686,11 +3808,15 @@
       <c r="J22" s="1">
         <v>506</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>83</v>
       </c>
@@ -3719,11 +3845,15 @@
       <c r="J23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -3752,11 +3882,15 @@
       <c r="J24" s="5">
         <v>607</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>88</v>
       </c>
@@ -3787,11 +3921,15 @@
       <c r="J25" s="1">
         <v>507</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>88</v>
       </c>
@@ -3822,11 +3960,15 @@
       <c r="J26" s="1">
         <v>517</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>88</v>
       </c>
@@ -3857,11 +3999,15 @@
       <c r="J27" s="1">
         <v>520</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
@@ -3892,11 +4038,15 @@
       <c r="J28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>97</v>
       </c>
@@ -3925,11 +4075,15 @@
       <c r="J29" s="1">
         <v>511</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>101</v>
       </c>
@@ -3956,11 +4110,15 @@
       <c r="J30" s="1">
         <v>516</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>104</v>
       </c>
@@ -3989,11 +4147,15 @@
       <c r="J31" s="1">
         <v>514</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>110</v>
       </c>
@@ -4020,11 +4182,15 @@
       <c r="J32" s="1">
         <v>605</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>110</v>
       </c>
@@ -4051,11 +4217,15 @@
       <c r="J33" s="1">
         <v>605</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>115</v>
       </c>
@@ -4084,11 +4254,15 @@
       <c r="J34" s="1">
         <v>506</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K34" s="1">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>110</v>
       </c>
@@ -4115,11 +4289,15 @@
       <c r="J35" s="1">
         <v>605</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>118</v>
       </c>
@@ -4146,11 +4324,15 @@
       <c r="J36" s="1">
         <v>508</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>53</v>
       </c>
@@ -4181,11 +4363,15 @@
       <c r="J37" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K37" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K37" s="4">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>88</v>
       </c>
@@ -4216,11 +4402,15 @@
       <c r="J38" s="1">
         <v>522</v>
       </c>
-      <c r="K38" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>53</v>
       </c>
@@ -4251,11 +4441,15 @@
       <c r="J39" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K39" s="1">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>53</v>
       </c>
@@ -4286,11 +4480,15 @@
       <c r="J40" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K40" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K40" s="1">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>125</v>
       </c>
@@ -4319,11 +4517,15 @@
       <c r="J41" s="1">
         <v>521</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>131</v>
       </c>
@@ -4350,11 +4552,15 @@
       <c r="J42" s="1">
         <v>605</v>
       </c>
-      <c r="K42" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
@@ -4385,11 +4591,15 @@
       <c r="J43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K43" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K43" s="1">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>135</v>
       </c>
@@ -4418,11 +4628,15 @@
       <c r="J44" s="1">
         <v>503</v>
       </c>
-      <c r="K44" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K44" s="1">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -4453,11 +4667,15 @@
       <c r="J45" s="1">
         <v>604</v>
       </c>
-      <c r="K45" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>141</v>
       </c>
@@ -4486,11 +4704,15 @@
       <c r="J46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>144</v>
       </c>
@@ -4519,11 +4741,15 @@
       <c r="J47" s="1">
         <v>505</v>
       </c>
-      <c r="K47" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>148</v>
       </c>
@@ -4552,11 +4778,15 @@
       <c r="J48" s="1">
         <v>513</v>
       </c>
-      <c r="K48" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>88</v>
       </c>
@@ -4587,11 +4817,15 @@
       <c r="J49" s="1">
         <v>607</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>153</v>
       </c>
@@ -4622,11 +4856,15 @@
       <c r="J50" s="1">
         <v>507</v>
       </c>
-      <c r="K50" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>153</v>
       </c>
@@ -4657,11 +4895,15 @@
       <c r="J51" s="1">
         <v>517</v>
       </c>
-      <c r="K51" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>157</v>
       </c>
@@ -4690,11 +4932,15 @@
       <c r="J52" s="5">
         <v>508</v>
       </c>
-      <c r="K52" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>161</v>
       </c>
@@ -4723,11 +4969,15 @@
       <c r="J53" s="1">
         <v>604</v>
       </c>
-      <c r="K53" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K53" s="1">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>165</v>
       </c>
@@ -4756,11 +5006,15 @@
       <c r="J54" s="1">
         <v>519</v>
       </c>
-      <c r="K54" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K54" s="1">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>170</v>
       </c>
@@ -4789,11 +5043,15 @@
       <c r="J55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K55" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>174</v>
       </c>
@@ -4822,11 +5080,15 @@
       <c r="J56" s="1">
         <v>511</v>
       </c>
-      <c r="K56" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>177</v>
       </c>
@@ -4855,11 +5117,15 @@
       <c r="J57" s="5">
         <v>521</v>
       </c>
-      <c r="K57" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K57" s="1">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>153</v>
       </c>
@@ -4890,11 +5156,15 @@
       <c r="J58" s="1">
         <v>520</v>
       </c>
-      <c r="K58" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K58" s="1">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>153</v>
       </c>
@@ -4925,11 +5195,15 @@
       <c r="J59" s="1">
         <v>522</v>
       </c>
-      <c r="K59" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K59" s="1">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>182</v>
       </c>
@@ -4956,11 +5230,15 @@
       <c r="J60" s="1">
         <v>602</v>
       </c>
-      <c r="K60" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K60" s="1">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>185</v>
       </c>
@@ -4989,11 +5267,15 @@
       <c r="J61" s="1">
         <v>507</v>
       </c>
-      <c r="K61" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K61" s="1">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>115</v>
       </c>
@@ -5022,11 +5304,15 @@
       <c r="J62" s="5">
         <v>506</v>
       </c>
-      <c r="K62" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K62" s="1">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>66</v>
       </c>
@@ -5055,11 +5341,15 @@
       <c r="J63" s="1">
         <v>507</v>
       </c>
-      <c r="K63" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K63" s="1">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>153</v>
       </c>
@@ -5090,11 +5380,15 @@
       <c r="J64" s="1">
         <v>604</v>
       </c>
-      <c r="K64" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K64" s="1">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>192</v>
       </c>
@@ -5121,11 +5415,15 @@
       <c r="J65" s="1">
         <v>606</v>
       </c>
-      <c r="K65" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K65" s="1">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>195</v>
       </c>
@@ -5154,11 +5452,15 @@
       <c r="J66" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K66" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K66" s="1">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>153</v>
       </c>
@@ -5189,11 +5491,15 @@
       <c r="J67" s="1">
         <v>607</v>
       </c>
-      <c r="K67" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K67" s="1">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <f t="shared" ref="L67:L94" si="1">IF(K67="YA",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>199</v>
       </c>
@@ -5222,11 +5528,15 @@
       <c r="J68" s="5">
         <v>507</v>
       </c>
-      <c r="K68" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K68" s="1">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>199</v>
       </c>
@@ -5255,11 +5565,15 @@
       <c r="J69" s="5">
         <v>604</v>
       </c>
-      <c r="K69" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K69" s="1">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>79</v>
       </c>
@@ -5288,11 +5602,15 @@
       <c r="J70" s="1">
         <v>506</v>
       </c>
-      <c r="K70" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K70" s="1">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>204</v>
       </c>
@@ -5323,11 +5641,15 @@
       <c r="J71" s="1">
         <v>510</v>
       </c>
-      <c r="K71" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K71" s="1">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>209</v>
       </c>
@@ -5356,11 +5678,15 @@
       <c r="J72" s="1">
         <v>523</v>
       </c>
-      <c r="K72" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K72" s="1">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>213</v>
       </c>
@@ -5389,11 +5715,15 @@
       <c r="J73" s="4">
         <v>504</v>
       </c>
-      <c r="K73" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K73" s="4">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>209</v>
       </c>
@@ -5422,11 +5752,15 @@
       <c r="J74" s="1">
         <v>523</v>
       </c>
-      <c r="K74" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K74" s="1">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>209</v>
       </c>
@@ -5455,11 +5789,15 @@
       <c r="J75" s="1">
         <v>523</v>
       </c>
-      <c r="K75" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K75" s="1">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>217</v>
       </c>
@@ -5488,11 +5826,15 @@
       <c r="J76" s="1">
         <v>519</v>
       </c>
-      <c r="K76" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K76" s="1">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>199</v>
       </c>
@@ -5521,11 +5863,15 @@
       <c r="J77" s="1">
         <v>508</v>
       </c>
-      <c r="K77" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K77" s="1">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>222</v>
       </c>
@@ -5554,11 +5900,15 @@
       <c r="J78" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K78" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K78" s="1">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>225</v>
       </c>
@@ -5587,11 +5937,15 @@
       <c r="J79" s="1">
         <v>514</v>
       </c>
-      <c r="K79" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K79" s="1">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>209</v>
       </c>
@@ -5620,8 +5974,12 @@
       <c r="J80" s="1">
         <v>523</v>
       </c>
-      <c r="K80" s="1" t="s">
-        <v>5</v>
+      <c r="K80" s="1">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -5653,8 +6011,12 @@
       <c r="J81" s="1">
         <v>510</v>
       </c>
-      <c r="K81" s="1" t="s">
-        <v>5</v>
+      <c r="K81" s="1">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -5684,8 +6046,12 @@
       <c r="J82" s="1">
         <v>510</v>
       </c>
-      <c r="K82" s="1" t="s">
-        <v>5</v>
+      <c r="K82" s="1">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -5717,8 +6083,12 @@
       <c r="J83" s="1">
         <v>506</v>
       </c>
-      <c r="K83" s="1" t="s">
-        <v>25</v>
+      <c r="K83" s="1">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -5748,8 +6118,12 @@
       <c r="J84" s="1">
         <v>510</v>
       </c>
-      <c r="K84" s="1" t="s">
-        <v>5</v>
+      <c r="K84" s="1">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -5781,8 +6155,12 @@
       <c r="J85" s="4">
         <v>505</v>
       </c>
-      <c r="K85" s="1" t="s">
-        <v>25</v>
+      <c r="K85" s="1">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -5814,8 +6192,12 @@
       <c r="J86" s="1">
         <v>505</v>
       </c>
-      <c r="K86" s="1" t="s">
-        <v>25</v>
+      <c r="K86" s="1">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -5847,8 +6229,12 @@
       <c r="J87" s="1">
         <v>505</v>
       </c>
-      <c r="K87" s="1" t="s">
-        <v>25</v>
+      <c r="K87" s="1">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -5880,8 +6266,12 @@
       <c r="J88" s="5">
         <v>511</v>
       </c>
-      <c r="K88" s="1" t="s">
-        <v>5</v>
+      <c r="K88" s="1">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -5913,8 +6303,12 @@
       <c r="J89" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K89" s="1" t="s">
-        <v>25</v>
+      <c r="K89" s="1">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -5944,8 +6338,12 @@
       <c r="J90" s="1">
         <v>514</v>
       </c>
-      <c r="K90" s="1" t="s">
-        <v>5</v>
+      <c r="K90" s="1">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -5975,8 +6373,12 @@
       <c r="J91" s="1">
         <v>514</v>
       </c>
-      <c r="K91" s="1" t="s">
-        <v>5</v>
+      <c r="K91" s="1">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -6006,8 +6408,12 @@
       <c r="J92" s="1">
         <v>605</v>
       </c>
-      <c r="K92" s="1" t="s">
-        <v>5</v>
+      <c r="K92" s="1">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -6037,8 +6443,12 @@
       <c r="J93" s="1">
         <v>605</v>
       </c>
-      <c r="K93" s="1" t="s">
-        <v>5</v>
+      <c r="K93" s="1">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -6068,8 +6478,12 @@
       <c r="J94" s="1">
         <v>605</v>
       </c>
-      <c r="K94" s="1" t="s">
-        <v>5</v>
+      <c r="K94" s="1">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -6144,7 +6558,7 @@
         <v>5</v>
       </c>
       <c r="L96">
-        <f t="shared" ref="L96:L159" si="0">IF(G96="Kamis",4,IF(G96="Rabu",3,IF(G96="Selasa",2,IF(G96="Senin",1,5))))</f>
+        <f t="shared" ref="L96:L159" si="2">IF(G96="Kamis",4,IF(G96="Rabu",3,IF(G96="Selasa",2,IF(G96="Senin",1,5))))</f>
         <v>5</v>
       </c>
     </row>
@@ -6183,7 +6597,7 @@
         <v>5</v>
       </c>
       <c r="L97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -6218,7 +6632,7 @@
         <v>5</v>
       </c>
       <c r="L98">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -6255,7 +6669,7 @@
         <v>25</v>
       </c>
       <c r="L99">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -6290,7 +6704,7 @@
         <v>5</v>
       </c>
       <c r="L100">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -6323,7 +6737,7 @@
         <v>25</v>
       </c>
       <c r="L101">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -6354,7 +6768,7 @@
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -6391,7 +6805,7 @@
         <v>5</v>
       </c>
       <c r="L103">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -6428,7 +6842,7 @@
         <v>25</v>
       </c>
       <c r="L104">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -6463,7 +6877,7 @@
         <v>5</v>
       </c>
       <c r="L105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -6500,7 +6914,7 @@
         <v>5</v>
       </c>
       <c r="L106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -6539,7 +6953,7 @@
         <v>25</v>
       </c>
       <c r="L107">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -6576,7 +6990,7 @@
         <v>25</v>
       </c>
       <c r="L108">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -6613,7 +7027,7 @@
         <v>5</v>
       </c>
       <c r="L109">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -6648,7 +7062,7 @@
         <v>5</v>
       </c>
       <c r="L110">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -6685,7 +7099,7 @@
         <v>5</v>
       </c>
       <c r="L111">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -6720,7 +7134,7 @@
         <v>5</v>
       </c>
       <c r="L112">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -6757,7 +7171,7 @@
         <v>5</v>
       </c>
       <c r="L113">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -6794,7 +7208,7 @@
         <v>5</v>
       </c>
       <c r="L114">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -6831,7 +7245,7 @@
         <v>5</v>
       </c>
       <c r="L115">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -6868,7 +7282,7 @@
         <v>5</v>
       </c>
       <c r="L116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -6905,7 +7319,7 @@
         <v>5</v>
       </c>
       <c r="L117">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -6942,7 +7356,7 @@
         <v>5</v>
       </c>
       <c r="L118">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -6979,7 +7393,7 @@
         <v>5</v>
       </c>
       <c r="L119">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -7016,7 +7430,7 @@
         <v>5</v>
       </c>
       <c r="L120">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -7053,7 +7467,7 @@
         <v>5</v>
       </c>
       <c r="L121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -7090,7 +7504,7 @@
         <v>5</v>
       </c>
       <c r="L122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -7127,7 +7541,7 @@
         <v>5</v>
       </c>
       <c r="L123">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -7164,7 +7578,7 @@
         <v>5</v>
       </c>
       <c r="L124">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -7201,7 +7615,7 @@
         <v>5</v>
       </c>
       <c r="L125">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -7238,7 +7652,7 @@
         <v>25</v>
       </c>
       <c r="L126">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -7273,7 +7687,7 @@
         <v>5</v>
       </c>
       <c r="L127">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -7310,7 +7724,7 @@
         <v>5</v>
       </c>
       <c r="L128">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -7347,7 +7761,7 @@
         <v>25</v>
       </c>
       <c r="L129">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -7384,7 +7798,7 @@
         <v>5</v>
       </c>
       <c r="L130">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -7421,7 +7835,7 @@
         <v>5</v>
       </c>
       <c r="L131">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -7460,7 +7874,7 @@
         <v>5</v>
       </c>
       <c r="L132">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -7497,7 +7911,7 @@
         <v>5</v>
       </c>
       <c r="L133">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -7534,7 +7948,7 @@
         <v>5</v>
       </c>
       <c r="L134">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -7569,7 +7983,7 @@
         <v>5</v>
       </c>
       <c r="L135">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -7606,7 +8020,7 @@
         <v>5</v>
       </c>
       <c r="L136">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -7641,7 +8055,7 @@
         <v>5</v>
       </c>
       <c r="L137">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -7676,7 +8090,7 @@
         <v>5</v>
       </c>
       <c r="L138">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -7713,7 +8127,7 @@
         <v>5</v>
       </c>
       <c r="L139">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -7748,7 +8162,7 @@
         <v>5</v>
       </c>
       <c r="L140">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -7785,7 +8199,7 @@
         <v>5</v>
       </c>
       <c r="L141">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -7820,7 +8234,7 @@
         <v>5</v>
       </c>
       <c r="L142">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -7855,7 +8269,7 @@
         <v>5</v>
       </c>
       <c r="L143">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -7890,7 +8304,7 @@
         <v>5</v>
       </c>
       <c r="L144">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -7925,7 +8339,7 @@
         <v>5</v>
       </c>
       <c r="L145">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -7962,7 +8376,7 @@
         <v>5</v>
       </c>
       <c r="L146">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -8001,7 +8415,7 @@
         <v>5</v>
       </c>
       <c r="L147">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -8038,7 +8452,7 @@
         <v>5</v>
       </c>
       <c r="L148">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -8075,7 +8489,7 @@
         <v>5</v>
       </c>
       <c r="L149">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -8114,7 +8528,7 @@
         <v>5</v>
       </c>
       <c r="L150">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -8153,7 +8567,7 @@
         <v>5</v>
       </c>
       <c r="L151">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -8192,7 +8606,7 @@
         <v>5</v>
       </c>
       <c r="L152">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -8231,7 +8645,7 @@
         <v>5</v>
       </c>
       <c r="L153">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -8270,7 +8684,7 @@
         <v>5</v>
       </c>
       <c r="L154">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -8305,7 +8719,7 @@
         <v>5</v>
       </c>
       <c r="L155">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -8344,7 +8758,7 @@
         <v>5</v>
       </c>
       <c r="L156">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -8383,7 +8797,7 @@
         <v>5</v>
       </c>
       <c r="L157">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -8418,7 +8832,7 @@
         <v>5</v>
       </c>
       <c r="L158">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -8455,7 +8869,7 @@
         <v>25</v>
       </c>
       <c r="L159">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -8492,7 +8906,7 @@
         <v>5</v>
       </c>
       <c r="L160">
-        <f t="shared" ref="L160:L223" si="1">IF(G160="Kamis",4,IF(G160="Rabu",3,IF(G160="Selasa",2,IF(G160="Senin",1,5))))</f>
+        <f t="shared" ref="L160:L223" si="3">IF(G160="Kamis",4,IF(G160="Rabu",3,IF(G160="Selasa",2,IF(G160="Senin",1,5))))</f>
         <v>5</v>
       </c>
     </row>
@@ -8529,7 +8943,7 @@
         <v>5</v>
       </c>
       <c r="L161">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -8566,7 +8980,7 @@
         <v>5</v>
       </c>
       <c r="L162">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -8603,7 +9017,7 @@
         <v>25</v>
       </c>
       <c r="L163">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -8642,7 +9056,7 @@
         <v>5</v>
       </c>
       <c r="L164">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -8681,7 +9095,7 @@
         <v>5</v>
       </c>
       <c r="L165">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -8720,7 +9134,7 @@
         <v>5</v>
       </c>
       <c r="L166">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -8759,7 +9173,7 @@
         <v>5</v>
       </c>
       <c r="L167">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -8796,7 +9210,7 @@
         <v>5</v>
       </c>
       <c r="L168">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -8833,7 +9247,7 @@
         <v>5</v>
       </c>
       <c r="L169">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -8868,7 +9282,7 @@
         <v>25</v>
       </c>
       <c r="L170">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -8907,7 +9321,7 @@
         <v>5</v>
       </c>
       <c r="L171">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -8944,7 +9358,7 @@
         <v>5</v>
       </c>
       <c r="L172">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -8981,7 +9395,7 @@
         <v>25</v>
       </c>
       <c r="L173">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -9018,7 +9432,7 @@
         <v>5</v>
       </c>
       <c r="L174">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -9055,7 +9469,7 @@
         <v>5</v>
       </c>
       <c r="L175">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -9092,7 +9506,7 @@
         <v>5</v>
       </c>
       <c r="L176">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -9129,7 +9543,7 @@
         <v>5</v>
       </c>
       <c r="L177">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -9166,7 +9580,7 @@
         <v>5</v>
       </c>
       <c r="L178">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -9203,7 +9617,7 @@
         <v>5</v>
       </c>
       <c r="L179">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -9240,7 +9654,7 @@
         <v>5</v>
       </c>
       <c r="L180">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -9277,7 +9691,7 @@
         <v>5</v>
       </c>
       <c r="L181">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -9314,7 +9728,7 @@
         <v>25</v>
       </c>
       <c r="L182">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -9353,7 +9767,7 @@
         <v>5</v>
       </c>
       <c r="L183">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -9390,7 +9804,7 @@
         <v>5</v>
       </c>
       <c r="L184">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -9427,7 +9841,7 @@
         <v>5</v>
       </c>
       <c r="L185">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -9464,7 +9878,7 @@
         <v>5</v>
       </c>
       <c r="L186">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -9501,7 +9915,7 @@
         <v>5</v>
       </c>
       <c r="L187">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -9538,7 +9952,7 @@
         <v>25</v>
       </c>
       <c r="L188">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -9575,7 +9989,7 @@
         <v>5</v>
       </c>
       <c r="L189">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -9614,7 +10028,7 @@
         <v>5</v>
       </c>
       <c r="L190">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -9651,7 +10065,7 @@
         <v>5</v>
       </c>
       <c r="L191">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -9688,7 +10102,7 @@
         <v>5</v>
       </c>
       <c r="L192">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -9725,7 +10139,7 @@
         <v>5</v>
       </c>
       <c r="L193">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -9762,7 +10176,7 @@
         <v>5</v>
       </c>
       <c r="L194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -9799,7 +10213,7 @@
         <v>5</v>
       </c>
       <c r="L195">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -9836,7 +10250,7 @@
         <v>5</v>
       </c>
       <c r="L196">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -9873,7 +10287,7 @@
         <v>5</v>
       </c>
       <c r="L197">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -9912,7 +10326,7 @@
         <v>5</v>
       </c>
       <c r="L198">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -9951,7 +10365,7 @@
         <v>5</v>
       </c>
       <c r="L199">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -9988,7 +10402,7 @@
         <v>5</v>
       </c>
       <c r="L200">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -10027,7 +10441,7 @@
         <v>5</v>
       </c>
       <c r="L201">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -10066,7 +10480,7 @@
         <v>5</v>
       </c>
       <c r="L202">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -10105,7 +10519,7 @@
         <v>5</v>
       </c>
       <c r="L203">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -10142,7 +10556,7 @@
         <v>5</v>
       </c>
       <c r="L204">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -10179,7 +10593,7 @@
         <v>5</v>
       </c>
       <c r="L205">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -10218,7 +10632,7 @@
         <v>5</v>
       </c>
       <c r="L206">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -10255,7 +10669,7 @@
         <v>5</v>
       </c>
       <c r="L207">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -10294,7 +10708,7 @@
         <v>5</v>
       </c>
       <c r="L208">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -10333,7 +10747,7 @@
         <v>5</v>
       </c>
       <c r="L209">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -10370,7 +10784,7 @@
         <v>25</v>
       </c>
       <c r="L210">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -10407,7 +10821,7 @@
         <v>25</v>
       </c>
       <c r="L211">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -10444,7 +10858,7 @@
         <v>25</v>
       </c>
       <c r="L212">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -10479,7 +10893,7 @@
         <v>5</v>
       </c>
       <c r="L213">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -10516,7 +10930,7 @@
         <v>5</v>
       </c>
       <c r="L214">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -10553,7 +10967,7 @@
         <v>5</v>
       </c>
       <c r="L215">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -10590,7 +11004,7 @@
         <v>5</v>
       </c>
       <c r="L216">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -10627,7 +11041,7 @@
         <v>5</v>
       </c>
       <c r="L217">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -10664,7 +11078,7 @@
         <v>5</v>
       </c>
       <c r="L218">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -10701,7 +11115,7 @@
         <v>5</v>
       </c>
       <c r="L219">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -10738,7 +11152,7 @@
         <v>5</v>
       </c>
       <c r="L220">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -10775,7 +11189,7 @@
         <v>5</v>
       </c>
       <c r="L221">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -10812,7 +11226,7 @@
         <v>5</v>
       </c>
       <c r="L222">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -10849,7 +11263,7 @@
         <v>5</v>
       </c>
       <c r="L223">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -10886,7 +11300,7 @@
         <v>5</v>
       </c>
       <c r="L224">
-        <f t="shared" ref="L224:L287" si="2">IF(G224="Kamis",4,IF(G224="Rabu",3,IF(G224="Selasa",2,IF(G224="Senin",1,5))))</f>
+        <f t="shared" ref="L224:L287" si="4">IF(G224="Kamis",4,IF(G224="Rabu",3,IF(G224="Selasa",2,IF(G224="Senin",1,5))))</f>
         <v>5</v>
       </c>
     </row>
@@ -10923,7 +11337,7 @@
         <v>5</v>
       </c>
       <c r="L225">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -10962,7 +11376,7 @@
         <v>5</v>
       </c>
       <c r="L226">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -10999,7 +11413,7 @@
         <v>5</v>
       </c>
       <c r="L227">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -11036,7 +11450,7 @@
         <v>5</v>
       </c>
       <c r="L228">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -11073,7 +11487,7 @@
         <v>25</v>
       </c>
       <c r="L229">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -11112,7 +11526,7 @@
         <v>5</v>
       </c>
       <c r="L230">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -11149,7 +11563,7 @@
         <v>5</v>
       </c>
       <c r="L231">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -11188,7 +11602,7 @@
         <v>5</v>
       </c>
       <c r="L232">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -11225,7 +11639,7 @@
         <v>25</v>
       </c>
       <c r="L233">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -11262,7 +11676,7 @@
         <v>5</v>
       </c>
       <c r="L234">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -11299,7 +11713,7 @@
         <v>5</v>
       </c>
       <c r="L235">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -11336,7 +11750,7 @@
         <v>5</v>
       </c>
       <c r="L236">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -11373,7 +11787,7 @@
         <v>5</v>
       </c>
       <c r="L237">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -11410,7 +11824,7 @@
         <v>5</v>
       </c>
       <c r="L238">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -11447,7 +11861,7 @@
         <v>5</v>
       </c>
       <c r="L239">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -11484,7 +11898,7 @@
         <v>5</v>
       </c>
       <c r="L240">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -11521,7 +11935,7 @@
         <v>5</v>
       </c>
       <c r="L241">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -11558,7 +11972,7 @@
         <v>5</v>
       </c>
       <c r="L242">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -11595,7 +12009,7 @@
         <v>5</v>
       </c>
       <c r="L243">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -11632,7 +12046,7 @@
         <v>5</v>
       </c>
       <c r="L244">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -11671,7 +12085,7 @@
         <v>5</v>
       </c>
       <c r="L245">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -11708,7 +12122,7 @@
         <v>5</v>
       </c>
       <c r="L246">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -11745,7 +12159,7 @@
         <v>5</v>
       </c>
       <c r="L247">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -11782,7 +12196,7 @@
         <v>5</v>
       </c>
       <c r="L248">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -11819,7 +12233,7 @@
         <v>5</v>
       </c>
       <c r="L249">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -11856,7 +12270,7 @@
         <v>5</v>
       </c>
       <c r="L250">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -11893,7 +12307,7 @@
         <v>5</v>
       </c>
       <c r="L251">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -11930,7 +12344,7 @@
         <v>208</v>
       </c>
       <c r="L252">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -11967,7 +12381,7 @@
         <v>5</v>
       </c>
       <c r="L253">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -12004,7 +12418,7 @@
         <v>5</v>
       </c>
       <c r="L254">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -12041,7 +12455,7 @@
         <v>5</v>
       </c>
       <c r="L255">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -12078,7 +12492,7 @@
         <v>5</v>
       </c>
       <c r="L256">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -12115,7 +12529,7 @@
         <v>5</v>
       </c>
       <c r="L257">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -12154,7 +12568,7 @@
         <v>5</v>
       </c>
       <c r="L258">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -12191,7 +12605,7 @@
         <v>5</v>
       </c>
       <c r="L259">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -12228,7 +12642,7 @@
         <v>5</v>
       </c>
       <c r="L260">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -12265,7 +12679,7 @@
         <v>5</v>
       </c>
       <c r="L261">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -12302,7 +12716,7 @@
         <v>5</v>
       </c>
       <c r="L262">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -12339,7 +12753,7 @@
         <v>5</v>
       </c>
       <c r="L263">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -12376,7 +12790,7 @@
         <v>5</v>
       </c>
       <c r="L264">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -12413,7 +12827,7 @@
         <v>5</v>
       </c>
       <c r="L265">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -12448,7 +12862,7 @@
         <v>25</v>
       </c>
       <c r="L266">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -12485,7 +12899,7 @@
         <v>5</v>
       </c>
       <c r="L267">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -12522,7 +12936,7 @@
         <v>5</v>
       </c>
       <c r="L268">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -12559,7 +12973,7 @@
         <v>5</v>
       </c>
       <c r="L269">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -12596,7 +13010,7 @@
         <v>5</v>
       </c>
       <c r="L270">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -12633,7 +13047,7 @@
         <v>5</v>
       </c>
       <c r="L271">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -12670,7 +13084,7 @@
         <v>5</v>
       </c>
       <c r="L272">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -12707,7 +13121,7 @@
         <v>5</v>
       </c>
       <c r="L273">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -12744,7 +13158,7 @@
         <v>5</v>
       </c>
       <c r="L274">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -12781,7 +13195,7 @@
         <v>208</v>
       </c>
       <c r="L275">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -12818,7 +13232,7 @@
         <v>5</v>
       </c>
       <c r="L276">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -12855,7 +13269,7 @@
         <v>5</v>
       </c>
       <c r="L277">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -12892,7 +13306,7 @@
         <v>5</v>
       </c>
       <c r="L278">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -12929,7 +13343,7 @@
         <v>5</v>
       </c>
       <c r="L279">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -12966,7 +13380,7 @@
         <v>25</v>
       </c>
       <c r="L280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -13003,7 +13417,7 @@
         <v>25</v>
       </c>
       <c r="L281">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -13040,7 +13454,7 @@
         <v>25</v>
       </c>
       <c r="L282">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -13075,7 +13489,7 @@
         <v>5</v>
       </c>
       <c r="L283">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -13110,7 +13524,7 @@
         <v>5</v>
       </c>
       <c r="L284">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -13147,7 +13561,7 @@
         <v>5</v>
       </c>
       <c r="L285">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -13184,7 +13598,7 @@
         <v>25</v>
       </c>
       <c r="L286">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -13219,7 +13633,7 @@
         <v>5</v>
       </c>
       <c r="L287">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -13256,7 +13670,7 @@
         <v>5</v>
       </c>
       <c r="L288">
-        <f t="shared" ref="L288:L299" si="3">IF(G288="Kamis",4,IF(G288="Rabu",3,IF(G288="Selasa",2,IF(G288="Senin",1,5))))</f>
+        <f t="shared" ref="L288:L299" si="5">IF(G288="Kamis",4,IF(G288="Rabu",3,IF(G288="Selasa",2,IF(G288="Senin",1,5))))</f>
         <v>5</v>
       </c>
     </row>
@@ -13295,7 +13709,7 @@
         <v>5</v>
       </c>
       <c r="L289">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -13332,7 +13746,7 @@
         <v>25</v>
       </c>
       <c r="L290">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -13369,7 +13783,7 @@
         <v>25</v>
       </c>
       <c r="L291">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -13406,7 +13820,7 @@
         <v>25</v>
       </c>
       <c r="L292">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -13445,7 +13859,7 @@
         <v>5</v>
       </c>
       <c r="L293">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -13482,7 +13896,7 @@
         <v>5</v>
       </c>
       <c r="L294">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -13519,7 +13933,7 @@
         <v>5</v>
       </c>
       <c r="L295">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -13556,7 +13970,7 @@
         <v>25</v>
       </c>
       <c r="L296">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -13593,7 +14007,7 @@
         <v>25</v>
       </c>
       <c r="L297">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -13630,7 +14044,7 @@
         <v>5</v>
       </c>
       <c r="L298">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -13667,7 +14081,7 @@
         <v>5</v>
       </c>
       <c r="L299">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
